--- a/configs/global_config_A5.xlsx
+++ b/configs/global_config_A5.xlsx
@@ -581,7 +581,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E2" s="7">
         <v>10000</v>
